--- a/biology/Microbiologie/Enterococcaceae/Enterococcaceae.xlsx
+++ b/biology/Microbiologie/Enterococcaceae/Enterococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enterococcaceae est une famille de bactéries appartenant à l'ordre des Lactobacillales.
-Enterococcus, le genre type, est formé de bactéries lactiques jouant un rôle important dans l'environnement, les aliments fermentés (fromages, saucissons) et la microbiologie clinique. Ce sont des bactéries ubiquitaires dont l'habitat préféré est le tractus gastro-intestinal des animaux[2].
+Enterococcus, le genre type, est formé de bactéries lactiques jouant un rôle important dans l'environnement, les aliments fermentés (fromages, saucissons) et la microbiologie clinique. Ce sont des bactéries ubiquitaires dont l'habitat préféré est le tractus gastro-intestinal des animaux.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractères bactériologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Enterococcaceae sont des coques ovoïdes, à Gram positif[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Enterococcaceae sont des coques ovoïdes, à Gram positif.
 coccus
 Gram positif
 anaérobie strict ou facultatif, micro-aérophile
@@ -547,10 +561,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille des Enterococcaceae est actuellement délimitée sur la base d'analyses phylogénétiques de la séquence de l'ARNr 16S[3].
-Selon NCBI  (19 mai 2013)[4] ou Euzéby[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La famille des Enterococcaceae est actuellement délimitée sur la base d'analyses phylogénétiques de la séquence de l'ARNr 16S.
+Selon NCBI  (19 mai 2013) ou Euzéby :
 genre Bavariicoccus
 genre Catellicoccus
 genre Enterococcus, entérocoques
